--- a/DA_QL_DEP/file/SanPhamImport.xlsx
+++ b/DA_QL_DEP/file/SanPhamImport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="72">
   <si>
     <t>Mã</t>
   </si>
@@ -87,7 +87,10 @@
     <t>N/a</t>
   </si>
   <si>
-    <t>13-04-2023</t>
+    <t>01-04-2023</t>
+  </si>
+  <si>
+    <t>20-04-2023</t>
   </si>
   <si>
     <t>Ðang Kinh Doanh</t>
@@ -219,22 +222,19 @@
     <t>D0011</t>
   </si>
   <si>
-    <t>Dép Đúc</t>
-  </si>
-  <si>
-    <t>Tím</t>
-  </si>
-  <si>
-    <t>D0012</t>
-  </si>
-  <si>
-    <t>D0013</t>
-  </si>
-  <si>
-    <t>Dép Đúc2</t>
-  </si>
-  <si>
-    <t>Dép Đúc3</t>
+    <t>Dép Pradda</t>
+  </si>
+  <si>
+    <t>17-04-2023</t>
+  </si>
+  <si>
+    <t>D00100</t>
+  </si>
+  <si>
+    <t>D00101</t>
+  </si>
+  <si>
+    <t>D00102</t>
   </si>
 </sst>
 </file>
@@ -573,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="J3" sqref="J3:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,13 +653,13 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="E2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -683,45 +683,45 @@
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3">
-        <v>3600</v>
+        <v>13000</v>
       </c>
       <c r="E3">
-        <v>3200</v>
+        <v>11000</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
@@ -730,45 +730,45 @@
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
       <c r="D4">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="E4">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4">
         <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
@@ -777,30 +777,30 @@
         <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>100</v>
       </c>
       <c r="D5">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="E5">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -809,13 +809,13 @@
         <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
         <v>21</v>
@@ -824,30 +824,30 @@
         <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>100</v>
       </c>
       <c r="D6">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="E6">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -856,13 +856,13 @@
         <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
@@ -871,30 +871,30 @@
         <v>22</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="E7">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -903,13 +903,13 @@
         <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
@@ -918,42 +918,42 @@
         <v>22</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="E8">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8">
         <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J8" t="s">
         <v>20</v>
@@ -965,30 +965,30 @@
         <v>22</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="E9">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -997,13 +997,13 @@
         <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K9" t="s">
         <v>21</v>
@@ -1012,45 +1012,45 @@
         <v>22</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>3200</v>
+        <v>13000</v>
       </c>
       <c r="E10">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G10">
         <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K10" t="s">
         <v>21</v>
@@ -1059,45 +1059,45 @@
         <v>22</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11">
-        <v>999</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="E11">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11">
         <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K11" t="s">
         <v>21</v>
@@ -1106,154 +1106,201 @@
         <v>22</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="E12">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
       </c>
       <c r="G12">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="K12" t="s">
         <v>21</v>
       </c>
       <c r="L12" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="E13">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
       </c>
       <c r="G13">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="K13" t="s">
         <v>21</v>
       </c>
       <c r="L13" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O13" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="E14">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
       </c>
       <c r="G14">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="J14" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="K14" t="s">
         <v>21</v>
       </c>
       <c r="L14" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>12000</v>
+      </c>
+      <c r="E15">
+        <v>10000</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" t="s">
         <v>23</v>
       </c>
-      <c r="O14" t="s">
-        <v>31</v>
+      <c r="N15" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
